--- a/parameter_files/v1/de_dg_gw_upper.xlsx
+++ b/parameter_files/v1/de_dg_gw_upper.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4efc3e9dc81381f4/Documents/SJV-gen-modeling/parameter_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4efc3e9dc81381f4/Documents/SJV-gen-modeling/parameter_files/v1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{027CEFEE-6977-4EF3-9714-F9BE2629FBB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC075383-1E5D-4A86-BC08-36899E780EA6}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{027CEFEE-6977-4EF3-9714-F9BE2629FBB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57B453C5-83F9-4CA3-B64B-DC6700A7D382}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{79620C5E-93EC-41E4-B7D2-2730489730D1}"/>
+    <workbookView xWindow="20" yWindow="380" windowWidth="19180" windowHeight="10060" xr2:uid="{79620C5E-93EC-41E4-B7D2-2730489730D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,12 +33,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Bureau of Reclamation</t>
-  </si>
-  <si>
-    <t>Legislature</t>
   </si>
   <si>
     <t>Friant Water Authority</t>
@@ -655,7 +652,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -663,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BB0AAA4-2CD8-4207-AFE9-C5172655BE92}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -677,30 +674,30 @@
     <row r="1" spans="1:8" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6"/>
       <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="13" t="s">
-        <v>34</v>
-      </c>
       <c r="H1" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="2"/>
@@ -711,7 +708,7 @@
     </row>
     <row r="3" spans="1:8" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="2"/>
@@ -722,7 +719,7 @@
     </row>
     <row r="4" spans="1:8" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="2"/>
@@ -733,7 +730,7 @@
     </row>
     <row r="5" spans="1:8" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="2"/>
@@ -744,7 +741,7 @@
     </row>
     <row r="6" spans="1:8" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="2"/>
@@ -755,7 +752,7 @@
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="4">
         <v>0.5</v>
@@ -768,7 +765,7 @@
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="2"/>
@@ -779,7 +776,7 @@
     </row>
     <row r="9" spans="1:8" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="2"/>
@@ -790,7 +787,7 @@
     </row>
     <row r="10" spans="1:8" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -804,7 +801,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:8" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="9" t="s">
         <v>1</v>
       </c>
@@ -837,7 +834,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:8" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="9" t="s">
         <v>4</v>
       </c>
@@ -848,9 +845,9 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="9" t="s">
-        <v>5</v>
+    <row r="16" spans="1:8" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="2"/>
@@ -874,7 +871,9 @@
       <c r="A18" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="4"/>
+      <c r="B18" s="4">
+        <v>2</v>
+      </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -885,43 +884,43 @@
       <c r="A19" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="4">
-        <v>2</v>
-      </c>
+      <c r="B19" s="5"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="2"/>
+    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="3"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="E20" s="3"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="3"/>
+      <c r="B21" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="3"/>
+      <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B22" s="5">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -929,13 +928,11 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="5">
-        <v>2</v>
-      </c>
+      <c r="B23" s="4"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -953,7 +950,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="9" t="s">
         <v>10</v>
       </c>
@@ -964,7 +961,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="9" t="s">
         <v>11</v>
       </c>
@@ -986,7 +983,7 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" ht="73" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="9" t="s">
         <v>13</v>
       </c>
@@ -997,17 +994,6 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" ht="73" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/parameter_files/v1/de_dg_gw_upper.xlsx
+++ b/parameter_files/v1/de_dg_gw_upper.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4efc3e9dc81381f4/Documents/SJV-gen-modeling/parameter_files/v1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{027CEFEE-6977-4EF3-9714-F9BE2629FBB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57B453C5-83F9-4CA3-B64B-DC6700A7D382}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{027CEFEE-6977-4EF3-9714-F9BE2629FBB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{433ECBBA-3FB3-4B1C-8413-F32F5B974667}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="380" windowWidth="19180" windowHeight="10060" xr2:uid="{79620C5E-93EC-41E4-B7D2-2730489730D1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{79620C5E-93EC-41E4-B7D2-2730489730D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -141,7 +141,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,12 +153,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF6D01"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -307,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -327,25 +321,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -361,6 +350,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -660,15 +653,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BB0AAA4-2CD8-4207-AFE9-C5172655BE92}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="11"/>
+    <col min="1" max="1" width="37.08984375" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -676,22 +669,22 @@
       <c r="B1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="11" t="s">
         <v>22</v>
       </c>
     </row>
@@ -785,13 +778,13 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="4"/>
@@ -801,8 +794,8 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:8" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="4"/>
@@ -812,8 +805,8 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:8" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="4"/>
@@ -823,8 +816,8 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:8" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="4"/>
@@ -835,7 +828,7 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="4"/>
@@ -845,8 +838,8 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:8" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="10" t="s">
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="12" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4"/>
@@ -856,8 +849,8 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="10" t="s">
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="12" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4"/>
@@ -867,8 +860,8 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="10" t="s">
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
@@ -880,8 +873,8 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="10" t="s">
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="12" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="5"/>
@@ -892,7 +885,7 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="4"/>
@@ -902,8 +895,8 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="9" t="s">
+    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B21" s="5">
@@ -915,8 +908,8 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="9" t="s">
+    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B22" s="5">
@@ -928,8 +921,8 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="9" t="s">
+    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B23" s="4"/>
@@ -939,8 +932,8 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="9" t="s">
+    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B24" s="4"/>
@@ -950,8 +943,8 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="9" t="s">
+    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B25" s="4"/>
@@ -962,7 +955,7 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B26" s="4"/>
@@ -973,7 +966,7 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B27" s="4"/>
@@ -983,8 +976,8 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" ht="73" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="9" t="s">
+    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B28" s="4"/>
@@ -994,6 +987,9 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="12"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
